--- a/data/pca/factorExposure/factorExposure_2011-09-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-09-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,24 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +723,60 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.01640932329027598</v>
+        <v>-0.01601764335833403</v>
       </c>
       <c r="C2">
-        <v>0.03521789401179126</v>
+        <v>-0.001355990542681785</v>
       </c>
       <c r="D2">
-        <v>0.02113241051184494</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.03465317901841438</v>
+      </c>
+      <c r="E2">
+        <v>0.01439743960982983</v>
+      </c>
+      <c r="F2">
+        <v>0.03620918994772045</v>
+      </c>
+      <c r="G2">
+        <v>0.01883988056075409</v>
+      </c>
+      <c r="H2">
+        <v>0.001770791581550883</v>
+      </c>
+      <c r="I2">
+        <v>-0.01429598069892575</v>
+      </c>
+      <c r="J2">
+        <v>0.057912077317497</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +787,60 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.07972779205141621</v>
+        <v>-0.09529076773468617</v>
       </c>
       <c r="C4">
-        <v>0.05376699843883646</v>
+        <v>-0.04349846753710066</v>
       </c>
       <c r="D4">
-        <v>0.07513630353730642</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.07032860169086151</v>
+      </c>
+      <c r="E4">
+        <v>-0.02045744353830846</v>
+      </c>
+      <c r="F4">
+        <v>0.06748545786811527</v>
+      </c>
+      <c r="G4">
+        <v>-0.02501154598400403</v>
+      </c>
+      <c r="H4">
+        <v>-0.01755933997615091</v>
+      </c>
+      <c r="I4">
+        <v>0.0821549097811136</v>
+      </c>
+      <c r="J4">
+        <v>-0.04277623273864572</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +851,380 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0.1175383028525525</v>
+        <v>-0.1296814979308545</v>
       </c>
       <c r="C6">
-        <v>0.03914579766281564</v>
+        <v>0.0001982281807433752</v>
       </c>
       <c r="D6">
-        <v>0.008980531529266832</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.03172169736419886</v>
+      </c>
+      <c r="E6">
+        <v>0.03214284932104081</v>
+      </c>
+      <c r="F6">
+        <v>0.03111639984293538</v>
+      </c>
+      <c r="G6">
+        <v>-0.03093972571627696</v>
+      </c>
+      <c r="H6">
+        <v>0.1853858125341713</v>
+      </c>
+      <c r="I6">
+        <v>-0.01685580305589396</v>
+      </c>
+      <c r="J6">
+        <v>-0.4403729855580425</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.06830558887918564</v>
+        <v>-0.07056584100152563</v>
       </c>
       <c r="C7">
-        <v>0.04781028428112461</v>
+        <v>-0.04088751122938896</v>
       </c>
       <c r="D7">
-        <v>0.03859295759462619</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05362182975861821</v>
+      </c>
+      <c r="E7">
+        <v>0.01173803671726597</v>
+      </c>
+      <c r="F7">
+        <v>0.05021702603081926</v>
+      </c>
+      <c r="G7">
+        <v>0.01103367506754253</v>
+      </c>
+      <c r="H7">
+        <v>-0.01468736085787485</v>
+      </c>
+      <c r="I7">
+        <v>0.04452365026424902</v>
+      </c>
+      <c r="J7">
+        <v>0.05794250164862488</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.03976162727883426</v>
+        <v>-0.0415789046939647</v>
       </c>
       <c r="C8">
-        <v>-0.004256510945070274</v>
+        <v>-0.02794619817183454</v>
       </c>
       <c r="D8">
-        <v>0.06135190647981936</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.009946268996031541</v>
+      </c>
+      <c r="E8">
+        <v>-0.00979881289952738</v>
+      </c>
+      <c r="F8">
+        <v>0.08011057497478509</v>
+      </c>
+      <c r="G8">
+        <v>-0.04859644942089689</v>
+      </c>
+      <c r="H8">
+        <v>0.02312848522601971</v>
+      </c>
+      <c r="I8">
+        <v>0.1142418981600182</v>
+      </c>
+      <c r="J8">
+        <v>-0.02592396393647553</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.07292882212103262</v>
+        <v>-0.08425003266148569</v>
       </c>
       <c r="C9">
-        <v>0.0408052347889452</v>
+        <v>-0.04544362780961739</v>
       </c>
       <c r="D9">
-        <v>0.07854856625567967</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.05914247989837154</v>
+      </c>
+      <c r="E9">
+        <v>-0.01412472168485372</v>
+      </c>
+      <c r="F9">
+        <v>0.0531426373449269</v>
+      </c>
+      <c r="G9">
+        <v>-0.04306576342890509</v>
+      </c>
+      <c r="H9">
+        <v>-0.01474082931203456</v>
+      </c>
+      <c r="I9">
+        <v>0.08232484976581257</v>
+      </c>
+      <c r="J9">
+        <v>-0.04282805007768176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.0251189771956258</v>
+        <v>-0.06282100782131783</v>
       </c>
       <c r="C10">
-        <v>0.03776903687209846</v>
+        <v>0.1971502856891033</v>
       </c>
       <c r="D10">
-        <v>-0.1715496039369346</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.02812522568482825</v>
+      </c>
+      <c r="E10">
+        <v>0.011136736356698</v>
+      </c>
+      <c r="F10">
+        <v>0.05448440370208055</v>
+      </c>
+      <c r="G10">
+        <v>0.03979522623604754</v>
+      </c>
+      <c r="H10">
+        <v>0.026971802074831</v>
+      </c>
+      <c r="I10">
+        <v>-0.06472418464385325</v>
+      </c>
+      <c r="J10">
+        <v>0.0123433810650461</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.07017066630107353</v>
+        <v>-0.07548884151044293</v>
       </c>
       <c r="C11">
-        <v>0.03345779155331009</v>
+        <v>-0.04876007114623922</v>
       </c>
       <c r="D11">
-        <v>0.06748550978440865</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.04770912201463674</v>
+      </c>
+      <c r="E11">
+        <v>0.01345811970597716</v>
+      </c>
+      <c r="F11">
+        <v>0.0338267651415466</v>
+      </c>
+      <c r="G11">
+        <v>-0.06252634698425219</v>
+      </c>
+      <c r="H11">
+        <v>-0.02846546328110168</v>
+      </c>
+      <c r="I11">
+        <v>0.06546547440252452</v>
+      </c>
+      <c r="J11">
+        <v>0.02108332358984391</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.0672031044291042</v>
+        <v>-0.07267137999451044</v>
       </c>
       <c r="C12">
-        <v>0.04476882317103301</v>
+        <v>-0.03623957603011091</v>
       </c>
       <c r="D12">
-        <v>0.05419879085765848</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05080894918648276</v>
+      </c>
+      <c r="E12">
+        <v>-0.002416000290252746</v>
+      </c>
+      <c r="F12">
+        <v>0.02740267151118805</v>
+      </c>
+      <c r="G12">
+        <v>-0.03412979820910377</v>
+      </c>
+      <c r="H12">
+        <v>0.001504228298219468</v>
+      </c>
+      <c r="I12">
+        <v>0.08748871587169627</v>
+      </c>
+      <c r="J12">
+        <v>0.0266215257317941</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.07171231495738437</v>
+        <v>-0.06747038241668811</v>
       </c>
       <c r="C13">
-        <v>0.04391601041554119</v>
+        <v>-0.03166306558022147</v>
       </c>
       <c r="D13">
-        <v>0.0596237037370866</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.04340463358229892</v>
+      </c>
+      <c r="E13">
+        <v>-0.03574443111462009</v>
+      </c>
+      <c r="F13">
+        <v>0.0361167785893221</v>
+      </c>
+      <c r="G13">
+        <v>-0.02166754523840983</v>
+      </c>
+      <c r="H13">
+        <v>-0.02195397623683772</v>
+      </c>
+      <c r="I13">
+        <v>0.09930071914630312</v>
+      </c>
+      <c r="J13">
+        <v>0.04717792832240845</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.02903109328040702</v>
+        <v>-0.04134552100085615</v>
       </c>
       <c r="C14">
-        <v>0.0284419411820973</v>
+        <v>-0.004080632517466618</v>
       </c>
       <c r="D14">
-        <v>0.01191783356115671</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03456407808947814</v>
+      </c>
+      <c r="E14">
+        <v>-0.005781986619398065</v>
+      </c>
+      <c r="F14">
+        <v>0.01931440105651681</v>
+      </c>
+      <c r="G14">
+        <v>-0.03985368278369446</v>
+      </c>
+      <c r="H14">
+        <v>-0.05332297038107363</v>
+      </c>
+      <c r="I14">
+        <v>0.05372828756985037</v>
+      </c>
+      <c r="J14">
+        <v>-0.04053180553473796</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>0.05119762391566075</v>
+        <v>-0.04364951920398039</v>
       </c>
       <c r="C15">
-        <v>0.007873289807134752</v>
+        <v>-0.0168469836488092</v>
       </c>
       <c r="D15">
-        <v>0.02463277790159704</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.005817807330826005</v>
+      </c>
+      <c r="E15">
+        <v>-0.04093658776521819</v>
+      </c>
+      <c r="F15">
+        <v>0.01816068945841769</v>
+      </c>
+      <c r="G15">
+        <v>-0.02879565471110846</v>
+      </c>
+      <c r="H15">
+        <v>-0.01607657505658818</v>
+      </c>
+      <c r="I15">
+        <v>0.02828265950353518</v>
+      </c>
+      <c r="J15">
+        <v>-0.02534825575006414</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.06111282742590909</v>
+        <v>-0.07391364935330341</v>
       </c>
       <c r="C16">
-        <v>0.03553104514879803</v>
+        <v>-0.04735028408963526</v>
       </c>
       <c r="D16">
-        <v>0.06742497292903238</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.05429383389059598</v>
+      </c>
+      <c r="E16">
+        <v>-0.001752768885655164</v>
+      </c>
+      <c r="F16">
+        <v>0.03330051886891943</v>
+      </c>
+      <c r="G16">
+        <v>-0.03372602858350415</v>
+      </c>
+      <c r="H16">
+        <v>-0.0186778363334141</v>
+      </c>
+      <c r="I16">
+        <v>0.04117186842285663</v>
+      </c>
+      <c r="J16">
+        <v>0.01435117657724379</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1235,28 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1267,28 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1299,252 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.06439712350393507</v>
+        <v>-0.06234952513831025</v>
       </c>
       <c r="C20">
-        <v>0.02063769513992827</v>
+        <v>-0.03503581500845021</v>
       </c>
       <c r="D20">
-        <v>0.05705231535206004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.0265125829848975</v>
+      </c>
+      <c r="E20">
+        <v>0.003025376843540546</v>
+      </c>
+      <c r="F20">
+        <v>0.03032960070745987</v>
+      </c>
+      <c r="G20">
+        <v>-0.02731749116979755</v>
+      </c>
+      <c r="H20">
+        <v>-0.0360652057678249</v>
+      </c>
+      <c r="I20">
+        <v>0.1091863870340332</v>
+      </c>
+      <c r="J20">
+        <v>0.01101798946338606</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0.03737063072795691</v>
+        <v>-0.03171778616895467</v>
       </c>
       <c r="C21">
-        <v>0.008573996948945138</v>
+        <v>-0.01887166492542729</v>
       </c>
       <c r="D21">
-        <v>0.0161780943346699</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.009055614808189576</v>
+      </c>
+      <c r="E21">
+        <v>-0.03255104234170382</v>
+      </c>
+      <c r="F21">
+        <v>0.003612595378037296</v>
+      </c>
+      <c r="G21">
+        <v>0.0007687925974976122</v>
+      </c>
+      <c r="H21">
+        <v>0.06868122275111524</v>
+      </c>
+      <c r="I21">
+        <v>0.02386958555627723</v>
+      </c>
+      <c r="J21">
+        <v>-0.01315018113662587</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>0.1001913088824367</v>
+        <v>-0.08785856299591746</v>
       </c>
       <c r="C22">
-        <v>0.02528960122547618</v>
+        <v>-0.05798408420569826</v>
       </c>
       <c r="D22">
-        <v>0.1099779607876982</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.02388018162142019</v>
+      </c>
+      <c r="E22">
+        <v>-0.484400701665772</v>
+      </c>
+      <c r="F22">
+        <v>0.2499276858336328</v>
+      </c>
+      <c r="G22">
+        <v>0.3153741873571139</v>
+      </c>
+      <c r="H22">
+        <v>0.0562960447412597</v>
+      </c>
+      <c r="I22">
+        <v>-0.2279200617146025</v>
+      </c>
+      <c r="J22">
+        <v>0.0383385151493004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>0.1010131383331661</v>
+        <v>-0.08875675131043073</v>
       </c>
       <c r="C23">
-        <v>0.02630003037452162</v>
+        <v>-0.05829078894812815</v>
       </c>
       <c r="D23">
-        <v>0.1101812991794996</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.02509603929647629</v>
+      </c>
+      <c r="E23">
+        <v>-0.4870405104346304</v>
+      </c>
+      <c r="F23">
+        <v>0.2529415915415384</v>
+      </c>
+      <c r="G23">
+        <v>0.3101115792186277</v>
+      </c>
+      <c r="H23">
+        <v>0.05578679642752236</v>
+      </c>
+      <c r="I23">
+        <v>-0.2306058295379703</v>
+      </c>
+      <c r="J23">
+        <v>0.03271693452211723</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.07871855447703278</v>
+        <v>-0.08320211300783814</v>
       </c>
       <c r="C24">
-        <v>0.04116885465900668</v>
+        <v>-0.04579924274282991</v>
       </c>
       <c r="D24">
-        <v>0.06902442132701042</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.0529868966518025</v>
+      </c>
+      <c r="E24">
+        <v>-0.00252211241561041</v>
+      </c>
+      <c r="F24">
+        <v>0.04343080609652379</v>
+      </c>
+      <c r="G24">
+        <v>-0.05118146983670128</v>
+      </c>
+      <c r="H24">
+        <v>-0.00250951521807583</v>
+      </c>
+      <c r="I24">
+        <v>0.05678125500878061</v>
+      </c>
+      <c r="J24">
+        <v>0.004294142250409213</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.07552747942482978</v>
+        <v>-0.07753482443205083</v>
       </c>
       <c r="C25">
-        <v>0.04596017568811073</v>
+        <v>-0.03848022247894342</v>
       </c>
       <c r="D25">
-        <v>0.06793763137081071</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.05461471589689229</v>
+      </c>
+      <c r="E25">
+        <v>-0.008044679853618222</v>
+      </c>
+      <c r="F25">
+        <v>0.03908079381581557</v>
+      </c>
+      <c r="G25">
+        <v>-0.05085095679097485</v>
+      </c>
+      <c r="H25">
+        <v>-0.01398111797202347</v>
+      </c>
+      <c r="I25">
+        <v>0.07535790387522999</v>
+      </c>
+      <c r="J25">
+        <v>0.005016493982882872</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.04903664317709976</v>
+        <v>-0.04566299004969394</v>
       </c>
       <c r="C26">
-        <v>0.00647253036826305</v>
+        <v>-0.02150947951646728</v>
       </c>
       <c r="D26">
-        <v>0.02006220374920144</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.002721436564374863</v>
+      </c>
+      <c r="E26">
+        <v>-0.02449862495497052</v>
+      </c>
+      <c r="F26">
+        <v>0.03107585929654204</v>
+      </c>
+      <c r="G26">
+        <v>-0.02492218546339592</v>
+      </c>
+      <c r="H26">
+        <v>-0.02774809729966162</v>
+      </c>
+      <c r="I26">
+        <v>0.007625993596791181</v>
+      </c>
+      <c r="J26">
+        <v>-0.001216819946429258</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1555,316 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.04283876809105722</v>
+        <v>-0.07640510966668537</v>
       </c>
       <c r="C28">
-        <v>0.0791181489951391</v>
+        <v>0.2932004135338744</v>
       </c>
       <c r="D28">
-        <v>-0.2789233589958798</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.04360814785882049</v>
+      </c>
+      <c r="E28">
+        <v>-0.00171193819638394</v>
+      </c>
+      <c r="F28">
+        <v>0.04159902757883716</v>
+      </c>
+      <c r="G28">
+        <v>-0.02833003184038324</v>
+      </c>
+      <c r="H28">
+        <v>0.0410834737586122</v>
+      </c>
+      <c r="I28">
+        <v>-0.02294393008356058</v>
+      </c>
+      <c r="J28">
+        <v>0.01593217774087061</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.05083267306739588</v>
+        <v>-0.05333390512723772</v>
       </c>
       <c r="C29">
-        <v>0.04680326112626036</v>
+        <v>-0.001645577088101282</v>
       </c>
       <c r="D29">
-        <v>0.01039134805932623</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.04187220845728903</v>
+      </c>
+      <c r="E29">
+        <v>-0.01389988189211435</v>
+      </c>
+      <c r="F29">
+        <v>0.03396560957922919</v>
+      </c>
+      <c r="G29">
+        <v>-0.03030067631380409</v>
+      </c>
+      <c r="H29">
+        <v>-0.0671523029982608</v>
+      </c>
+      <c r="I29">
+        <v>0.03716926997422441</v>
+      </c>
+      <c r="J29">
+        <v>-0.01300122896909301</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.1419583613810819</v>
+        <v>-0.1302041472563677</v>
       </c>
       <c r="C30">
-        <v>0.07347799854024949</v>
+        <v>-0.04469894660173319</v>
       </c>
       <c r="D30">
-        <v>0.09819355793338436</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.07455705560261001</v>
+      </c>
+      <c r="E30">
+        <v>-0.0514117265001644</v>
+      </c>
+      <c r="F30">
+        <v>0.09605073767125884</v>
+      </c>
+      <c r="G30">
+        <v>-0.04356458700764808</v>
+      </c>
+      <c r="H30">
+        <v>0.05483803555508224</v>
+      </c>
+      <c r="I30">
+        <v>0.3426775442264662</v>
+      </c>
+      <c r="J30">
+        <v>0.08585848632981384</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>0.05103131833067441</v>
+        <v>-0.04605696319363507</v>
       </c>
       <c r="C31">
-        <v>0.02757476108296051</v>
+        <v>-0.03076293138388165</v>
       </c>
       <c r="D31">
-        <v>0.02737170807836165</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02841578998900695</v>
+      </c>
+      <c r="E31">
+        <v>-0.01526169283229134</v>
+      </c>
+      <c r="F31">
+        <v>0.01090935665401045</v>
+      </c>
+      <c r="G31">
+        <v>-0.006798062373741248</v>
+      </c>
+      <c r="H31">
+        <v>-0.05731926959186585</v>
+      </c>
+      <c r="I31">
+        <v>0.02937026591700421</v>
+      </c>
+      <c r="J31">
+        <v>-0.02250068356552489</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.0490449236148575</v>
+        <v>-0.0504013629670808</v>
       </c>
       <c r="C32">
-        <v>0.0107971256863189</v>
+        <v>-0.0007359718653988685</v>
       </c>
       <c r="D32">
-        <v>0.02501890734854541</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.007531067033782801</v>
+      </c>
+      <c r="E32">
+        <v>-0.07792963695031058</v>
+      </c>
+      <c r="F32">
+        <v>0.0345053822054197</v>
+      </c>
+      <c r="G32">
+        <v>-0.006647417743984297</v>
+      </c>
+      <c r="H32">
+        <v>-0.004498267523686746</v>
+      </c>
+      <c r="I32">
+        <v>-0.001700983521981211</v>
+      </c>
+      <c r="J32">
+        <v>0.06614611920691066</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.09744655550386751</v>
+        <v>-0.1004982136563465</v>
       </c>
       <c r="C33">
-        <v>0.04192542370205541</v>
+        <v>-0.04222701524094163</v>
       </c>
       <c r="D33">
-        <v>0.05196973178863729</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.04231925234423577</v>
+      </c>
+      <c r="E33">
+        <v>-0.0243330413770525</v>
+      </c>
+      <c r="F33">
+        <v>0.01292386974143655</v>
+      </c>
+      <c r="G33">
+        <v>-0.01449904545735828</v>
+      </c>
+      <c r="H33">
+        <v>-0.04095510947400445</v>
+      </c>
+      <c r="I33">
+        <v>0.07078458565856337</v>
+      </c>
+      <c r="J33">
+        <v>-0.0171995792642105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.06238644674791009</v>
+        <v>-0.07029196957849559</v>
       </c>
       <c r="C34">
-        <v>0.01988100711972465</v>
+        <v>-0.04210028328577334</v>
       </c>
       <c r="D34">
-        <v>0.06416530002992678</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03461722894319046</v>
+      </c>
+      <c r="E34">
+        <v>-0.003241335586079737</v>
+      </c>
+      <c r="F34">
+        <v>0.02484362121776898</v>
+      </c>
+      <c r="G34">
+        <v>-0.03613736057625601</v>
+      </c>
+      <c r="H34">
+        <v>-0.02300761578502493</v>
+      </c>
+      <c r="I34">
+        <v>0.04688719880822227</v>
+      </c>
+      <c r="J34">
+        <v>-0.01077455905727203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B35">
-        <v>0.03799580856667618</v>
+        <v>-0.03681718791492274</v>
       </c>
       <c r="C35">
-        <v>0.01433777901493829</v>
+        <v>-0.01518401753659951</v>
       </c>
       <c r="D35">
-        <v>0.01903422283135925</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01743206352049268</v>
+      </c>
+      <c r="E35">
+        <v>-0.01599072041300346</v>
+      </c>
+      <c r="F35">
+        <v>-0.009393927889468193</v>
+      </c>
+      <c r="G35">
+        <v>-0.01000166632535181</v>
+      </c>
+      <c r="H35">
+        <v>-0.02000200838287777</v>
+      </c>
+      <c r="I35">
+        <v>0.04800423469460902</v>
+      </c>
+      <c r="J35">
+        <v>0.004523003906575531</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.03441434642439584</v>
+        <v>-0.03245047477349525</v>
       </c>
       <c r="C36">
-        <v>0.01483539234013136</v>
+        <v>-0.01355458028422891</v>
       </c>
       <c r="D36">
-        <v>0.02554551812902085</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01550867278549049</v>
+      </c>
+      <c r="E36">
+        <v>-0.01946461916075765</v>
+      </c>
+      <c r="F36">
+        <v>0.04064943120450872</v>
+      </c>
+      <c r="G36">
+        <v>-0.02316444564352501</v>
+      </c>
+      <c r="H36">
+        <v>-0.02154522750015872</v>
+      </c>
+      <c r="I36">
+        <v>0.0612741548248034</v>
+      </c>
+      <c r="J36">
+        <v>-0.005159609307806685</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1875,156 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.06473186848674142</v>
+        <v>-0.05512310019308055</v>
       </c>
       <c r="C38">
-        <v>0.00337335919601193</v>
+        <v>-0.02531403317737502</v>
       </c>
       <c r="D38">
-        <v>0.0001160659601673512</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.004823529369121594</v>
+      </c>
+      <c r="E38">
+        <v>-0.02018473610173006</v>
+      </c>
+      <c r="F38">
+        <v>0.01126029379788563</v>
+      </c>
+      <c r="G38">
+        <v>0.001237650951261198</v>
+      </c>
+      <c r="H38">
+        <v>-0.02115979104047293</v>
+      </c>
+      <c r="I38">
+        <v>-0.0124920747918599</v>
+      </c>
+      <c r="J38">
+        <v>0.03489435311766807</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>0.0859357723878113</v>
+        <v>-0.09640562744975516</v>
       </c>
       <c r="C39">
-        <v>0.05236740489235552</v>
+        <v>-0.03563658430562971</v>
       </c>
       <c r="D39">
-        <v>0.05526947786350272</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.06250571128037084</v>
+      </c>
+      <c r="E39">
+        <v>-0.0104154285643165</v>
+      </c>
+      <c r="F39">
+        <v>0.02966578836279225</v>
+      </c>
+      <c r="G39">
+        <v>-0.03726139989075743</v>
+      </c>
+      <c r="H39">
+        <v>-0.003827022338551832</v>
+      </c>
+      <c r="I39">
+        <v>0.07146283651021212</v>
+      </c>
+      <c r="J39">
+        <v>0.1188124411228837</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.07326822090322713</v>
+        <v>-0.05260232684806049</v>
       </c>
       <c r="C40">
-        <v>0.02332855976683914</v>
+        <v>-0.04088041210655884</v>
       </c>
       <c r="D40">
-        <v>0.02527087267418988</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.01001375985209165</v>
+      </c>
+      <c r="E40">
+        <v>-0.06900351777300043</v>
+      </c>
+      <c r="F40">
+        <v>0.02044080430755344</v>
+      </c>
+      <c r="G40">
+        <v>-0.04539338245626973</v>
+      </c>
+      <c r="H40">
+        <v>0.07851729268061697</v>
+      </c>
+      <c r="I40">
+        <v>0.2055622959480277</v>
+      </c>
+      <c r="J40">
+        <v>0.2091931632521381</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.05882377579896157</v>
+        <v>-0.04871444519600711</v>
       </c>
       <c r="C41">
-        <v>0.006753212645729721</v>
+        <v>-0.03746473026065697</v>
       </c>
       <c r="D41">
-        <v>0.03432182029006994</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.00731320018466082</v>
+      </c>
+      <c r="E41">
+        <v>0.002385872474804614</v>
+      </c>
+      <c r="F41">
+        <v>-0.01658590122843426</v>
+      </c>
+      <c r="G41">
+        <v>-0.02741921310635777</v>
+      </c>
+      <c r="H41">
+        <v>-0.0314369683000798</v>
+      </c>
+      <c r="I41">
+        <v>0.02853182084345563</v>
+      </c>
+      <c r="J41">
+        <v>0.04521231631013713</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +2035,92 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>0.05990969569244211</v>
+        <v>-0.06189802615462343</v>
       </c>
       <c r="C43">
-        <v>0.02406548310970408</v>
+        <v>-0.02913808841277602</v>
       </c>
       <c r="D43">
-        <v>0.01835626018679766</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.02490087105848328</v>
+      </c>
+      <c r="E43">
+        <v>0.0002311488474235716</v>
+      </c>
+      <c r="F43">
+        <v>0.01684265097904015</v>
+      </c>
+      <c r="G43">
+        <v>0.002126775174325646</v>
+      </c>
+      <c r="H43">
+        <v>-0.05472550632441074</v>
+      </c>
+      <c r="I43">
+        <v>0.007906144388571505</v>
+      </c>
+      <c r="J43">
+        <v>0.01509910981227685</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.09206980565895487</v>
+        <v>-0.095076649986246</v>
       </c>
       <c r="C44">
-        <v>0.01668189824017698</v>
+        <v>-0.04957382671321474</v>
       </c>
       <c r="D44">
-        <v>0.06067553394415361</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.0276445510498739</v>
+      </c>
+      <c r="E44">
+        <v>-0.03689332885334849</v>
+      </c>
+      <c r="F44">
+        <v>0.1297275514389205</v>
+      </c>
+      <c r="G44">
+        <v>-0.06885483309649541</v>
+      </c>
+      <c r="H44">
+        <v>-0.03182745876612458</v>
+      </c>
+      <c r="I44">
+        <v>0.1221889892717798</v>
+      </c>
+      <c r="J44">
+        <v>0.04906920655384409</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +2131,220 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>0.03019750486510785</v>
+        <v>-0.04434796735015568</v>
       </c>
       <c r="C46">
-        <v>0.02245888377879075</v>
+        <v>-0.02424802184574504</v>
       </c>
       <c r="D46">
-        <v>0.03459707644040838</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.03699486082360246</v>
+      </c>
+      <c r="E46">
+        <v>-0.01645752375661531</v>
+      </c>
+      <c r="F46">
+        <v>0.03549778135983092</v>
+      </c>
+      <c r="G46">
+        <v>-0.0004572140659891056</v>
+      </c>
+      <c r="H46">
+        <v>-0.0160752991993508</v>
+      </c>
+      <c r="I46">
+        <v>0.01006579573924902</v>
+      </c>
+      <c r="J46">
+        <v>-0.0287389647112275</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.0375179151579962</v>
+        <v>-0.04736059860821817</v>
       </c>
       <c r="C47">
-        <v>0.02424183591697722</v>
+        <v>-0.00185529064145543</v>
       </c>
       <c r="D47">
-        <v>-0.002327550493132097</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.02212280043044969</v>
+      </c>
+      <c r="E47">
+        <v>-0.03523633065183084</v>
+      </c>
+      <c r="F47">
+        <v>0.01381156921284114</v>
+      </c>
+      <c r="G47">
+        <v>0.01678506642316583</v>
+      </c>
+      <c r="H47">
+        <v>-0.01863851206826926</v>
+      </c>
+      <c r="I47">
+        <v>0.02987054441787906</v>
+      </c>
+      <c r="J47">
+        <v>-0.03520924443818761</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.04504068932268569</v>
+        <v>-0.04301671824472528</v>
       </c>
       <c r="C48">
-        <v>0.02116391708370867</v>
+        <v>-0.01452682336553087</v>
       </c>
       <c r="D48">
-        <v>0.03316352913573248</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01677438681789747</v>
+      </c>
+      <c r="E48">
+        <v>-0.04275552321767469</v>
+      </c>
+      <c r="F48">
+        <v>0.02843203751109477</v>
+      </c>
+      <c r="G48">
+        <v>-0.01033369946911972</v>
+      </c>
+      <c r="H48">
+        <v>-0.004554280998466031</v>
+      </c>
+      <c r="I48">
+        <v>0.0501079737090541</v>
+      </c>
+      <c r="J48">
+        <v>-0.007495013351283454</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B49">
-        <v>0.1494548611127748</v>
+        <v>-0.2008584953154018</v>
       </c>
       <c r="C49">
-        <v>0.04780816404134749</v>
+        <v>-0.001032550935347266</v>
       </c>
       <c r="D49">
-        <v>0.009017725287367983</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.04915032787465269</v>
+      </c>
+      <c r="E49">
+        <v>0.1800394601053841</v>
+      </c>
+      <c r="F49">
+        <v>-0.07692871312924175</v>
+      </c>
+      <c r="G49">
+        <v>0.1412656059688412</v>
+      </c>
+      <c r="H49">
+        <v>0.1765548759986502</v>
+      </c>
+      <c r="I49">
+        <v>-0.09562439538184583</v>
+      </c>
+      <c r="J49">
+        <v>-0.02626238316499423</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.05376408062190055</v>
+        <v>-0.05229757044732529</v>
       </c>
       <c r="C50">
-        <v>0.03808743407512954</v>
+        <v>-0.02503943237585557</v>
       </c>
       <c r="D50">
-        <v>0.03665147866271267</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.04047931597455139</v>
+      </c>
+      <c r="E50">
+        <v>-0.02760250104661086</v>
+      </c>
+      <c r="F50">
+        <v>0.01343978924995627</v>
+      </c>
+      <c r="G50">
+        <v>-0.02253277428398905</v>
+      </c>
+      <c r="H50">
+        <v>-0.06457957349430943</v>
+      </c>
+      <c r="I50">
+        <v>0.02843921567618842</v>
+      </c>
+      <c r="J50">
+        <v>-0.03739527509010961</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.03282807846373246</v>
+        <v>-0.0396816656336274</v>
       </c>
       <c r="C51">
-        <v>-0.002964584141181648</v>
+        <v>0.003312017498794262</v>
       </c>
       <c r="D51">
-        <v>-0.008510807176634726</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01359814954559241</v>
+      </c>
+      <c r="E51">
+        <v>0.01708347193111433</v>
+      </c>
+      <c r="F51">
+        <v>0.008604969561287092</v>
+      </c>
+      <c r="G51">
+        <v>0.02667124310201738</v>
+      </c>
+      <c r="H51">
+        <v>0.01292607362480122</v>
+      </c>
+      <c r="I51">
+        <v>-0.01643395342061459</v>
+      </c>
+      <c r="J51">
+        <v>0.03882818102009098</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2355,156 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.1523165948495192</v>
+        <v>-0.1574869343333065</v>
       </c>
       <c r="C53">
-        <v>0.07492922739668118</v>
+        <v>-0.004517591842372527</v>
       </c>
       <c r="D53">
-        <v>-0.01085649298141751</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.05248996358813481</v>
+      </c>
+      <c r="E53">
+        <v>0.03309970165291943</v>
+      </c>
+      <c r="F53">
+        <v>-0.02229579999961881</v>
+      </c>
+      <c r="G53">
+        <v>-0.001899363517854412</v>
+      </c>
+      <c r="H53">
+        <v>-0.2313040002102377</v>
+      </c>
+      <c r="I53">
+        <v>-0.07035850563681387</v>
+      </c>
+      <c r="J53">
+        <v>-0.04024225790660613</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.06399072567145694</v>
+        <v>-0.06420780738817849</v>
       </c>
       <c r="C54">
-        <v>0.02290871023628718</v>
+        <v>-0.007585903971697124</v>
       </c>
       <c r="D54">
-        <v>0.02596923121153659</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02352041963897904</v>
+      </c>
+      <c r="E54">
+        <v>-0.04981119707356571</v>
+      </c>
+      <c r="F54">
+        <v>0.05511297917467278</v>
+      </c>
+      <c r="G54">
+        <v>-0.05102485669001188</v>
+      </c>
+      <c r="H54">
+        <v>-0.02993887849726826</v>
+      </c>
+      <c r="I54">
+        <v>0.1396191594592821</v>
+      </c>
+      <c r="J54">
+        <v>-0.02437281925691403</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.09360103937011224</v>
+        <v>-0.09742846399057055</v>
       </c>
       <c r="C55">
-        <v>0.05066860091302721</v>
+        <v>-0.01615995360485045</v>
       </c>
       <c r="D55">
-        <v>0.01226509170692363</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.0420326415975554</v>
+      </c>
+      <c r="E55">
+        <v>0.01223050020325148</v>
+      </c>
+      <c r="F55">
+        <v>0.01655735248497951</v>
+      </c>
+      <c r="G55">
+        <v>-0.03883209856900891</v>
+      </c>
+      <c r="H55">
+        <v>-0.1672612892078248</v>
+      </c>
+      <c r="I55">
+        <v>-0.01766115272185586</v>
+      </c>
+      <c r="J55">
+        <v>-0.03699203626662902</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.1428013290027519</v>
+        <v>-0.150115181930753</v>
       </c>
       <c r="C56">
-        <v>0.08807532903417725</v>
+        <v>-0.01912405978670231</v>
       </c>
       <c r="D56">
-        <v>-0.001353701526851077</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.06899395253305469</v>
+      </c>
+      <c r="E56">
+        <v>0.02656930582495134</v>
+      </c>
+      <c r="F56">
+        <v>0.001667198092465481</v>
+      </c>
+      <c r="G56">
+        <v>-0.02772687111157483</v>
+      </c>
+      <c r="H56">
+        <v>-0.2178463186998587</v>
+      </c>
+      <c r="I56">
+        <v>-0.09174097908331137</v>
+      </c>
+      <c r="J56">
+        <v>-0.000160056715726405</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2515,1244 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.1206849040444552</v>
+        <v>-0.08441273445408241</v>
       </c>
       <c r="C58">
-        <v>-0.05337656602337139</v>
+        <v>-0.06043464133853841</v>
       </c>
       <c r="D58">
-        <v>0.05475051156547676</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.06976518604562075</v>
+      </c>
+      <c r="E58">
+        <v>-0.08306276966718595</v>
+      </c>
+      <c r="F58">
+        <v>0.1014090686858539</v>
+      </c>
+      <c r="G58">
+        <v>0.1135035133335945</v>
+      </c>
+      <c r="H58">
+        <v>0.2219504004796546</v>
+      </c>
+      <c r="I58">
+        <v>0.5055497564480275</v>
+      </c>
+      <c r="J58">
+        <v>0.04398849170299875</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.1270116340530836</v>
+        <v>-0.1617992326014159</v>
       </c>
       <c r="C59">
-        <v>0.09999802727317002</v>
+        <v>0.3584207589513666</v>
       </c>
       <c r="D59">
-        <v>-0.4334115486332541</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.0806786881830293</v>
+      </c>
+      <c r="E59">
+        <v>0.004805388184300154</v>
+      </c>
+      <c r="F59">
+        <v>0.005327707895359661</v>
+      </c>
+      <c r="G59">
+        <v>-0.01180439375769445</v>
+      </c>
+      <c r="H59">
+        <v>-0.03765291755863855</v>
+      </c>
+      <c r="I59">
+        <v>-0.03665182201221417</v>
+      </c>
+      <c r="J59">
+        <v>0.07478749706190302</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.2099074223696093</v>
+        <v>-0.2424059912360748</v>
       </c>
       <c r="C60">
-        <v>0.08711704138663129</v>
+        <v>-0.01661030417649636</v>
       </c>
       <c r="D60">
-        <v>-0.003830152860054886</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.06691158790264291</v>
+      </c>
+      <c r="E60">
+        <v>0.1325878558517978</v>
+      </c>
+      <c r="F60">
+        <v>-0.02735712830898568</v>
+      </c>
+      <c r="G60">
+        <v>0.02771354951174</v>
+      </c>
+      <c r="H60">
+        <v>0.1226300237966594</v>
+      </c>
+      <c r="I60">
+        <v>-0.1393513065367404</v>
+      </c>
+      <c r="J60">
+        <v>-0.1093807481579263</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.07599256767027289</v>
+        <v>-0.08739600292502088</v>
       </c>
       <c r="C61">
-        <v>0.05179046930117539</v>
+        <v>-0.0261163138733813</v>
       </c>
       <c r="D61">
-        <v>0.03757559803201504</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.05810365164910687</v>
+      </c>
+      <c r="E61">
+        <v>7.536687160019935e-05</v>
+      </c>
+      <c r="F61">
+        <v>0.02362288855139055</v>
+      </c>
+      <c r="G61">
+        <v>-0.04913178527267605</v>
+      </c>
+      <c r="H61">
+        <v>-0.05071707434376911</v>
+      </c>
+      <c r="I61">
+        <v>0.0459712992454615</v>
+      </c>
+      <c r="J61">
+        <v>0.06720217512605009</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B62">
-        <v>0.1492333970928096</v>
+        <v>-0.1479318167492873</v>
       </c>
       <c r="C62">
-        <v>0.04966095997310373</v>
+        <v>-0.02879901926902875</v>
       </c>
       <c r="D62">
-        <v>-0.01272696078166226</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.0322769891043223</v>
+      </c>
+      <c r="E62">
+        <v>0.02410389718974877</v>
+      </c>
+      <c r="F62">
+        <v>-0.0455489742197623</v>
+      </c>
+      <c r="G62">
+        <v>-0.05335453828677997</v>
+      </c>
+      <c r="H62">
+        <v>-0.2090004523183789</v>
+      </c>
+      <c r="I62">
+        <v>-0.09547384845014936</v>
+      </c>
+      <c r="J62">
+        <v>-0.06167723634908372</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>0.0572504035220454</v>
+        <v>-0.05237657714849968</v>
       </c>
       <c r="C63">
-        <v>0.01287878563790489</v>
+        <v>-0.0208081204956451</v>
       </c>
       <c r="D63">
-        <v>0.0346082107047673</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.01654507721437196</v>
+      </c>
+      <c r="E63">
+        <v>-0.0216827976441583</v>
+      </c>
+      <c r="F63">
+        <v>0.01367885962451187</v>
+      </c>
+      <c r="G63">
+        <v>-0.05176235462612101</v>
+      </c>
+      <c r="H63">
+        <v>-0.01685173641658486</v>
+      </c>
+      <c r="I63">
+        <v>0.03613087217016887</v>
+      </c>
+      <c r="J63">
+        <v>-0.03529631187224853</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.09914160359842308</v>
+        <v>-0.1077179831686965</v>
       </c>
       <c r="C64">
-        <v>0.03755477532182595</v>
+        <v>-0.01428588005412165</v>
       </c>
       <c r="D64">
-        <v>0.02526029918518718</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.03766434501410688</v>
+      </c>
+      <c r="E64">
+        <v>0.0006063898584802848</v>
+      </c>
+      <c r="F64">
+        <v>0.05626915833910524</v>
+      </c>
+      <c r="G64">
+        <v>-0.04618318601375546</v>
+      </c>
+      <c r="H64">
+        <v>0.01530360183085153</v>
+      </c>
+      <c r="I64">
+        <v>0.05258682178335373</v>
+      </c>
+      <c r="J64">
+        <v>0.01486527626930845</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0.1247131382710897</v>
+        <v>-0.1331424432178562</v>
       </c>
       <c r="C65">
-        <v>0.03623577415853112</v>
+        <v>-0.00113357485143034</v>
       </c>
       <c r="D65">
-        <v>0.02869905192915715</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.03099048076524901</v>
+      </c>
+      <c r="E65">
+        <v>0.01509821257882746</v>
+      </c>
+      <c r="F65">
+        <v>0.01924563348107117</v>
+      </c>
+      <c r="G65">
+        <v>-0.06414579115887568</v>
+      </c>
+      <c r="H65">
+        <v>0.2142834987892635</v>
+      </c>
+      <c r="I65">
+        <v>0.01097737204345182</v>
+      </c>
+      <c r="J65">
+        <v>-0.64391776239168</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>0.1525380018865183</v>
+        <v>-0.148371504279243</v>
       </c>
       <c r="C66">
-        <v>0.06834780364858677</v>
+        <v>-0.07965247626889452</v>
       </c>
       <c r="D66">
-        <v>0.09079962077131769</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.08373014950283383</v>
+      </c>
+      <c r="E66">
+        <v>0.006339929138605801</v>
+      </c>
+      <c r="F66">
+        <v>0.01393055309297248</v>
+      </c>
+      <c r="G66">
+        <v>-0.08681769182782953</v>
+      </c>
+      <c r="H66">
+        <v>-0.0429555492138923</v>
+      </c>
+      <c r="I66">
+        <v>0.1309480243213028</v>
+      </c>
+      <c r="J66">
+        <v>0.1918587149598339</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.09630078960731212</v>
+        <v>-0.09896519234079729</v>
       </c>
       <c r="C67">
-        <v>0.006985111062848246</v>
+        <v>-0.03274259390835933</v>
       </c>
       <c r="D67">
-        <v>-0.001255986470995708</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.003481300630709135</v>
+      </c>
+      <c r="E67">
+        <v>0.01337251701866667</v>
+      </c>
+      <c r="F67">
+        <v>0.008575585722077185</v>
+      </c>
+      <c r="G67">
+        <v>0.01330880172426228</v>
+      </c>
+      <c r="H67">
+        <v>-0.01571945095450743</v>
+      </c>
+      <c r="I67">
+        <v>-0.04267753957219025</v>
+      </c>
+      <c r="J67">
+        <v>0.05563362527937079</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.04535002055279461</v>
+        <v>-0.0742361097615014</v>
       </c>
       <c r="C68">
-        <v>0.06362194037586621</v>
+        <v>0.2783032064312017</v>
       </c>
       <c r="D68">
-        <v>-0.2495759875303254</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.04651327999756576</v>
+      </c>
+      <c r="E68">
+        <v>-0.03057296849086619</v>
+      </c>
+      <c r="F68">
+        <v>0.03780743601838424</v>
+      </c>
+      <c r="G68">
+        <v>0.003685884608110717</v>
+      </c>
+      <c r="H68">
+        <v>-0.02239622174863215</v>
+      </c>
+      <c r="I68">
+        <v>0.02142123006127002</v>
+      </c>
+      <c r="J68">
+        <v>-0.03603099443626093</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.06695498556964501</v>
+        <v>-0.05759083232349121</v>
       </c>
       <c r="C69">
-        <v>0.01958094783661642</v>
+        <v>-0.01652889062899884</v>
       </c>
       <c r="D69">
-        <v>0.0166129574301489</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008466812264359162</v>
+      </c>
+      <c r="E69">
+        <v>-0.02375914032175274</v>
+      </c>
+      <c r="F69">
+        <v>-0.001783669098786966</v>
+      </c>
+      <c r="G69">
+        <v>-0.002062820353393972</v>
+      </c>
+      <c r="H69">
+        <v>-0.03501469334787643</v>
+      </c>
+      <c r="I69">
+        <v>0.01021406107181827</v>
+      </c>
+      <c r="J69">
+        <v>0.002057173665418741</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B70">
-        <v>0.01180633867761435</v>
+        <v>-0.03366294426277367</v>
       </c>
       <c r="C70">
-        <v>0.00337784718908134</v>
+        <v>0.001231865921790921</v>
       </c>
       <c r="D70">
-        <v>-0.007824561336841332</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.003205992752528228</v>
+      </c>
+      <c r="E70">
+        <v>0.03048727243960337</v>
+      </c>
+      <c r="F70">
+        <v>-0.0223395008592227</v>
+      </c>
+      <c r="G70">
+        <v>0.007535702389123468</v>
+      </c>
+      <c r="H70">
+        <v>0.04153549652727191</v>
+      </c>
+      <c r="I70">
+        <v>0.01162363338340279</v>
+      </c>
+      <c r="J70">
+        <v>0.04421911425738227</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.04107792679096453</v>
+        <v>-0.08038319057418016</v>
       </c>
       <c r="C71">
-        <v>0.06378083554937154</v>
+        <v>0.2978895403894103</v>
       </c>
       <c r="D71">
-        <v>-0.2793684542653144</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.04872807700595414</v>
+      </c>
+      <c r="E71">
+        <v>-0.01329074850168451</v>
+      </c>
+      <c r="F71">
+        <v>0.05420856560243939</v>
+      </c>
+      <c r="G71">
+        <v>-0.002522224084836261</v>
+      </c>
+      <c r="H71">
+        <v>-0.02119028888277023</v>
+      </c>
+      <c r="I71">
+        <v>0.02096514617518865</v>
+      </c>
+      <c r="J71">
+        <v>-0.01330075996833649</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.1436513500307087</v>
+        <v>-0.136397889407369</v>
       </c>
       <c r="C72">
-        <v>0.04441221781426891</v>
+        <v>0.004682466554560331</v>
       </c>
       <c r="D72">
-        <v>-0.03328762370449271</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.005294243689744565</v>
+      </c>
+      <c r="E72">
+        <v>-0.06772542630916607</v>
+      </c>
+      <c r="F72">
+        <v>-0.1572500683285145</v>
+      </c>
+      <c r="G72">
+        <v>-0.1236998996971658</v>
+      </c>
+      <c r="H72">
+        <v>-0.00492456357776992</v>
+      </c>
+      <c r="I72">
+        <v>-0.03065685008358313</v>
+      </c>
+      <c r="J72">
+        <v>-0.1307888610604407</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.2685699531524517</v>
+        <v>-0.2634939355163952</v>
       </c>
       <c r="C73">
-        <v>0.0717859962500321</v>
+        <v>-0.08259572146320616</v>
       </c>
       <c r="D73">
-        <v>0.04599516002271598</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.04240502076295456</v>
+      </c>
+      <c r="E73">
+        <v>0.3056569039350873</v>
+      </c>
+      <c r="F73">
+        <v>-0.1212301687486374</v>
+      </c>
+      <c r="G73">
+        <v>0.2220990228249879</v>
+      </c>
+      <c r="H73">
+        <v>0.2670627910577401</v>
+      </c>
+      <c r="I73">
+        <v>-0.1107442356245957</v>
+      </c>
+      <c r="J73">
+        <v>0.1773791391274967</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.08047431496056141</v>
+        <v>-0.09061173179668698</v>
       </c>
       <c r="C74">
-        <v>0.06831552074632712</v>
+        <v>-0.01627794547016269</v>
       </c>
       <c r="D74">
-        <v>0.005437639948207392</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.0603406579941774</v>
+      </c>
+      <c r="E74">
+        <v>0.01207175056149519</v>
+      </c>
+      <c r="F74">
+        <v>-0.009465378562176566</v>
+      </c>
+      <c r="G74">
+        <v>0.01875281601213159</v>
+      </c>
+      <c r="H74">
+        <v>-0.1399463027693312</v>
+      </c>
+      <c r="I74">
+        <v>-0.004550457979797549</v>
+      </c>
+      <c r="J74">
+        <v>-0.009943343807839525</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.1115765075244241</v>
+        <v>-0.1032768074738811</v>
       </c>
       <c r="C75">
-        <v>0.0383916199620321</v>
+        <v>-0.02251888528500967</v>
       </c>
       <c r="D75">
-        <v>0.005303943264546146</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.01533764562441506</v>
+      </c>
+      <c r="E75">
+        <v>-0.003252411042503855</v>
+      </c>
+      <c r="F75">
+        <v>-0.005004592193303754</v>
+      </c>
+      <c r="G75">
+        <v>-0.002244447474469113</v>
+      </c>
+      <c r="H75">
+        <v>-0.1141135638575173</v>
+      </c>
+      <c r="I75">
+        <v>-0.05245188905203894</v>
+      </c>
+      <c r="J75">
+        <v>-0.01212828082087861</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.1328523121716711</v>
+        <v>-0.132294446636252</v>
       </c>
       <c r="C76">
-        <v>0.07869567979128561</v>
+        <v>-0.0372003122582786</v>
       </c>
       <c r="D76">
-        <v>0.03054677951390932</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.07529821734384028</v>
+      </c>
+      <c r="E76">
+        <v>0.0165773221355366</v>
+      </c>
+      <c r="F76">
+        <v>0.01602663655481276</v>
+      </c>
+      <c r="G76">
+        <v>-0.03917323673636695</v>
+      </c>
+      <c r="H76">
+        <v>-0.2707249287173348</v>
+      </c>
+      <c r="I76">
+        <v>-0.06740918670981479</v>
+      </c>
+      <c r="J76">
+        <v>-0.01738368727975869</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.1332819161237141</v>
+        <v>-0.09836581701450633</v>
       </c>
       <c r="C77">
-        <v>-0.03519628114675526</v>
+        <v>-0.05793318302752555</v>
       </c>
       <c r="D77">
-        <v>0.06612069881134376</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.05586309013757498</v>
+      </c>
+      <c r="E77">
+        <v>-0.1126273296828682</v>
+      </c>
+      <c r="F77">
+        <v>0.1534919011250476</v>
+      </c>
+      <c r="G77">
+        <v>-0.713382902578234</v>
+      </c>
+      <c r="H77">
+        <v>0.3380479777127623</v>
+      </c>
+      <c r="I77">
+        <v>-0.3662984780250728</v>
+      </c>
+      <c r="J77">
+        <v>0.2440855750523738</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.1127014944978697</v>
+        <v>-0.159095474420781</v>
       </c>
       <c r="C78">
-        <v>0.02546816743328594</v>
+        <v>-0.0567849613820159</v>
       </c>
       <c r="D78">
-        <v>0.07782964644795455</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.06166424692333045</v>
+      </c>
+      <c r="E78">
+        <v>-0.07930754975002784</v>
+      </c>
+      <c r="F78">
+        <v>0.1180298401372824</v>
+      </c>
+      <c r="G78">
+        <v>0.03026250908847793</v>
+      </c>
+      <c r="H78">
+        <v>0.1307807362178476</v>
+      </c>
+      <c r="I78">
+        <v>0.02582684093041202</v>
+      </c>
+      <c r="J78">
+        <v>-0.1289912313648842</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B79">
-        <v>0.1459221039495114</v>
+        <v>-0.1446053672835406</v>
       </c>
       <c r="C79">
-        <v>0.05470300970986193</v>
+        <v>-0.03364865497191154</v>
       </c>
       <c r="D79">
-        <v>0.03062129906344185</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.04088581180333297</v>
+      </c>
+      <c r="E79">
+        <v>0.0205663541473992</v>
+      </c>
+      <c r="F79">
+        <v>-0.003448217566149475</v>
+      </c>
+      <c r="G79">
+        <v>-0.05579453147595507</v>
+      </c>
+      <c r="H79">
+        <v>-0.1859815564021154</v>
+      </c>
+      <c r="I79">
+        <v>-0.07945340221200288</v>
+      </c>
+      <c r="J79">
+        <v>-0.05510784458911957</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>0.0389090390366429</v>
+        <v>-0.04257207564094488</v>
       </c>
       <c r="C80">
-        <v>0.01446470952999379</v>
+        <v>-0.008509195675106541</v>
       </c>
       <c r="D80">
-        <v>0.02325253639275289</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01729538900372448</v>
+      </c>
+      <c r="E80">
+        <v>0.05209575206653962</v>
+      </c>
+      <c r="F80">
+        <v>-0.01990358420878294</v>
+      </c>
+      <c r="G80">
+        <v>-0.008452956037261776</v>
+      </c>
+      <c r="H80">
+        <v>0.01198192343627318</v>
+      </c>
+      <c r="I80">
+        <v>0.1011603287478866</v>
+      </c>
+      <c r="J80">
+        <v>-0.03335274254877066</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.1276407767094922</v>
+        <v>-0.1270425330314744</v>
       </c>
       <c r="C81">
-        <v>0.06984699195633634</v>
+        <v>-0.01304587732130877</v>
       </c>
       <c r="D81">
-        <v>0.01576489495700112</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.05204389314330109</v>
+      </c>
+      <c r="E81">
+        <v>0.0134238886682725</v>
+      </c>
+      <c r="F81">
+        <v>0.008076984781848888</v>
+      </c>
+      <c r="G81">
+        <v>-0.02635120145475923</v>
+      </c>
+      <c r="H81">
+        <v>-0.1457126775098601</v>
+      </c>
+      <c r="I81">
+        <v>-0.01542030873053838</v>
+      </c>
+      <c r="J81">
+        <v>0.02381113561644096</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B82">
-        <v>0.1209020409687186</v>
+        <v>-0.1202879498609237</v>
       </c>
       <c r="C82">
-        <v>0.05143297481889744</v>
+        <v>-0.02276772334228407</v>
       </c>
       <c r="D82">
-        <v>0.02081346069129379</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.04263561653270804</v>
+      </c>
+      <c r="E82">
+        <v>0.03325244058320678</v>
+      </c>
+      <c r="F82">
+        <v>0.009376392844706241</v>
+      </c>
+      <c r="G82">
+        <v>-0.005643845393831984</v>
+      </c>
+      <c r="H82">
+        <v>-0.2650335799187967</v>
+      </c>
+      <c r="I82">
+        <v>-0.06539312116019909</v>
+      </c>
+      <c r="J82">
+        <v>0.03247106111236859</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>0.0563085024478105</v>
+        <v>-0.07538257567271775</v>
       </c>
       <c r="C83">
-        <v>-0.04061870842965987</v>
+        <v>-0.03253027412982843</v>
       </c>
       <c r="D83">
-        <v>-0.005876311177541131</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03419038557626323</v>
+      </c>
+      <c r="E83">
+        <v>0.05156182761235636</v>
+      </c>
+      <c r="F83">
+        <v>0.006319701885567956</v>
+      </c>
+      <c r="G83">
+        <v>0.0568736721100062</v>
+      </c>
+      <c r="H83">
+        <v>0.06364928187518998</v>
+      </c>
+      <c r="I83">
+        <v>0.07378580451682851</v>
+      </c>
+      <c r="J83">
+        <v>0.04134982162166247</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B84">
-        <v>0.04289960502923609</v>
+        <v>-0.03587380768593564</v>
       </c>
       <c r="C84">
-        <v>0.02657692369712859</v>
+        <v>-0.03705855553931081</v>
       </c>
       <c r="D84">
-        <v>0.03389046750788631</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.02952626901669691</v>
+      </c>
+      <c r="E84">
+        <v>-0.0448444468313359</v>
+      </c>
+      <c r="F84">
+        <v>-0.02461315052699233</v>
+      </c>
+      <c r="G84">
+        <v>0.03541740064599362</v>
+      </c>
+      <c r="H84">
+        <v>-0.03539667549009771</v>
+      </c>
+      <c r="I84">
+        <v>0.1074749378214404</v>
+      </c>
+      <c r="J84">
+        <v>0.005741917973348746</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.1151226668520677</v>
+        <v>-0.1222131744760488</v>
       </c>
       <c r="C85">
-        <v>0.02984637025455789</v>
+        <v>-0.03199467037812301</v>
       </c>
       <c r="D85">
-        <v>0.03601515069980957</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.02679022325409693</v>
+      </c>
+      <c r="E85">
+        <v>0.01662878726490489</v>
+      </c>
+      <c r="F85">
+        <v>0.03637447043920711</v>
+      </c>
+      <c r="G85">
+        <v>-0.02565078792820927</v>
+      </c>
+      <c r="H85">
+        <v>-0.1855204206738068</v>
+      </c>
+      <c r="I85">
+        <v>-0.04822540451978203</v>
+      </c>
+      <c r="J85">
+        <v>-0.0596752151702427</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.06356042947625151</v>
+        <v>-0.06102498046686856</v>
       </c>
       <c r="C86">
-        <v>0.01668488391489705</v>
+        <v>-0.03191142241235764</v>
       </c>
       <c r="D86">
-        <v>0.06826716686099914</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.0187343992092226</v>
+      </c>
+      <c r="E86">
+        <v>-0.0238999343744635</v>
+      </c>
+      <c r="F86">
+        <v>0.03744762478199345</v>
+      </c>
+      <c r="G86">
+        <v>0.0119813681767215</v>
+      </c>
+      <c r="H86">
+        <v>0.05936767603575935</v>
+      </c>
+      <c r="I86">
+        <v>-0.05797174611079826</v>
+      </c>
+      <c r="J86">
+        <v>-0.04886954181954108</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.1214865145697783</v>
+        <v>-0.1278451356098519</v>
       </c>
       <c r="C87">
-        <v>0.0649453363001416</v>
+        <v>-0.05941133474478823</v>
       </c>
       <c r="D87">
-        <v>0.0907442183502277</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.0693482893221484</v>
+      </c>
+      <c r="E87">
+        <v>-0.05618213497973824</v>
+      </c>
+      <c r="F87">
+        <v>0.06303077273735232</v>
+      </c>
+      <c r="G87">
+        <v>-0.1539186373164793</v>
+      </c>
+      <c r="H87">
+        <v>0.09456598185802946</v>
+      </c>
+      <c r="I87">
+        <v>-0.01226209884024748</v>
+      </c>
+      <c r="J87">
+        <v>0.01301087783527846</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.05795259862022688</v>
+        <v>-0.06415006496683229</v>
       </c>
       <c r="C88">
-        <v>0.02729861561553418</v>
+        <v>-0.03336705165075501</v>
       </c>
       <c r="D88">
-        <v>0.0335088714433093</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.03642323250461744</v>
+      </c>
+      <c r="E88">
+        <v>0.01914604881227932</v>
+      </c>
+      <c r="F88">
+        <v>0.008271435469362463</v>
+      </c>
+      <c r="G88">
+        <v>-0.02308846947292636</v>
+      </c>
+      <c r="H88">
+        <v>-0.02980856856128123</v>
+      </c>
+      <c r="I88">
+        <v>0.03817162163255481</v>
+      </c>
+      <c r="J88">
+        <v>0.02022447075627391</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>0.06719233973377152</v>
+        <v>-0.1261292270617583</v>
       </c>
       <c r="C89">
-        <v>0.09397686426545093</v>
+        <v>0.376331818605202</v>
       </c>
       <c r="D89">
-        <v>-0.3096641056217994</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.04452403378673527</v>
+      </c>
+      <c r="E89">
+        <v>0.002829606916398684</v>
+      </c>
+      <c r="F89">
+        <v>0.09768312074201477</v>
+      </c>
+      <c r="G89">
+        <v>0.01665035450808872</v>
+      </c>
+      <c r="H89">
+        <v>-0.005993204970427339</v>
+      </c>
+      <c r="I89">
+        <v>0.07944408573619209</v>
+      </c>
+      <c r="J89">
+        <v>0.06903569412846612</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.0609977333905616</v>
+        <v>-0.09218123614530849</v>
       </c>
       <c r="C90">
-        <v>0.05978964080959548</v>
+        <v>0.2789614848269956</v>
       </c>
       <c r="D90">
-        <v>-0.2767319277741468</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.05528014094398621</v>
+      </c>
+      <c r="E90">
+        <v>-0.01057683979155426</v>
+      </c>
+      <c r="F90">
+        <v>0.04630310397691366</v>
+      </c>
+      <c r="G90">
+        <v>-0.01813080023012556</v>
+      </c>
+      <c r="H90">
+        <v>0.03425080267031023</v>
+      </c>
+      <c r="I90">
+        <v>0.08448355120583753</v>
+      </c>
+      <c r="J90">
+        <v>0.03894669566429963</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.1009462781178321</v>
+        <v>-0.0924841998293259</v>
       </c>
       <c r="C91">
-        <v>0.04765846673383263</v>
+        <v>-0.02482906804417619</v>
       </c>
       <c r="D91">
-        <v>0.01239619070587391</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.03021034865975922</v>
+      </c>
+      <c r="E91">
+        <v>0.004281893975304357</v>
+      </c>
+      <c r="F91">
+        <v>-0.005191649923713179</v>
+      </c>
+      <c r="G91">
+        <v>0.007236647602945387</v>
+      </c>
+      <c r="H91">
+        <v>-0.07635759825042633</v>
+      </c>
+      <c r="I91">
+        <v>-0.03618471263907805</v>
+      </c>
+      <c r="J91">
+        <v>0.007466522069475763</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.05303485680959205</v>
+        <v>-0.09312642335271294</v>
       </c>
       <c r="C92">
-        <v>0.08110932656285626</v>
+        <v>0.3313735449830025</v>
       </c>
       <c r="D92">
-        <v>-0.3218966155702303</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.05357635691952248</v>
+      </c>
+      <c r="E92">
+        <v>-0.01422996839197963</v>
+      </c>
+      <c r="F92">
+        <v>0.05841498846474513</v>
+      </c>
+      <c r="G92">
+        <v>-0.00360741222784625</v>
+      </c>
+      <c r="H92">
+        <v>-0.01616601029460699</v>
+      </c>
+      <c r="I92">
+        <v>0.02437222712096781</v>
+      </c>
+      <c r="J92">
+        <v>0.0213563032448531</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>0.0464664237235721</v>
+        <v>-0.09142730800776923</v>
       </c>
       <c r="C93">
-        <v>0.0758341225726714</v>
+        <v>0.317748048660811</v>
       </c>
       <c r="D93">
-        <v>-0.2986100803705974</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.04635372808362875</v>
+      </c>
+      <c r="E93">
+        <v>0.006033742086064069</v>
+      </c>
+      <c r="F93">
+        <v>0.03165893011158653</v>
+      </c>
+      <c r="G93">
+        <v>-0.003581597196965662</v>
+      </c>
+      <c r="H93">
+        <v>0.009040970130873065</v>
+      </c>
+      <c r="I93">
+        <v>0.01701146387870999</v>
+      </c>
+      <c r="J93">
+        <v>-0.005204942346706065</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.1254084346651922</v>
+        <v>-0.1233380699931167</v>
       </c>
       <c r="C94">
-        <v>0.01766340620396756</v>
+        <v>-0.04799542750477693</v>
       </c>
       <c r="D94">
-        <v>0.05120991757983782</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.01414578735397099</v>
+      </c>
+      <c r="E94">
+        <v>0.005492221801509965</v>
+      </c>
+      <c r="F94">
+        <v>0.02389981506224284</v>
+      </c>
+      <c r="G94">
+        <v>0.04762066668651314</v>
+      </c>
+      <c r="H94">
+        <v>-0.1138157038431193</v>
+      </c>
+      <c r="I94">
+        <v>-0.04228574263117574</v>
+      </c>
+      <c r="J94">
+        <v>-0.01704099140120722</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.1300189487094513</v>
+        <v>-0.1405097073720912</v>
       </c>
       <c r="C95">
-        <v>0.01422255419620026</v>
+        <v>-0.06213756673176632</v>
       </c>
       <c r="D95">
-        <v>0.08390352949045352</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.01725822245345775</v>
+      </c>
+      <c r="E95">
+        <v>0.006093509137447893</v>
+      </c>
+      <c r="F95">
+        <v>0.05104772378877698</v>
+      </c>
+      <c r="G95">
+        <v>-0.01714711092141981</v>
+      </c>
+      <c r="H95">
+        <v>0.140517483611259</v>
+      </c>
+      <c r="I95">
+        <v>0.05982747471151516</v>
+      </c>
+      <c r="J95">
+        <v>-0.03875936998829382</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3763,124 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B97">
-        <v>0.2398340192027275</v>
+        <v>-0.1818127503337439</v>
       </c>
       <c r="C97">
-        <v>0.05900300518693673</v>
+        <v>0.03696096914823491</v>
       </c>
       <c r="D97">
-        <v>-0.1309125273612092</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.06695673692858765</v>
+      </c>
+      <c r="E97">
+        <v>-0.4917099721053148</v>
+      </c>
+      <c r="F97">
+        <v>-0.7948681461365834</v>
+      </c>
+      <c r="G97">
+        <v>-0.07515354008552128</v>
+      </c>
+      <c r="H97">
+        <v>0.04183646937676072</v>
+      </c>
+      <c r="I97">
+        <v>0.08526457264281731</v>
+      </c>
+      <c r="J97">
+        <v>0.01317993731444169</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.2674318061658749</v>
+        <v>-0.2835325359910622</v>
       </c>
       <c r="C98">
-        <v>0.05848727818656529</v>
+        <v>-0.06215390809671447</v>
       </c>
       <c r="D98">
-        <v>0.02567336136797934</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.03775131925800124</v>
+      </c>
+      <c r="E98">
+        <v>0.2415475654874648</v>
+      </c>
+      <c r="F98">
+        <v>-0.1648592485565801</v>
+      </c>
+      <c r="G98">
+        <v>0.2901047193043818</v>
+      </c>
+      <c r="H98">
+        <v>0.2014290641180986</v>
+      </c>
+      <c r="I98">
+        <v>-0.1630476679063067</v>
+      </c>
+      <c r="J98">
+        <v>0.2504743863013705</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B99">
-        <v>0.3554466662592268</v>
+        <v>-0.2103803308884653</v>
       </c>
       <c r="C99">
-        <v>-0.902169133047349</v>
+        <v>-0.2335159313683784</v>
       </c>
       <c r="D99">
-        <v>-0.1356962670854645</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.9185941190885778</v>
+      </c>
+      <c r="E99">
+        <v>0.05007660856507343</v>
+      </c>
+      <c r="F99">
+        <v>0.08608220497621032</v>
+      </c>
+      <c r="G99">
+        <v>0.01164971096324984</v>
+      </c>
+      <c r="H99">
+        <v>-0.1156066086876159</v>
+      </c>
+      <c r="I99">
+        <v>0.02190801261302157</v>
+      </c>
+      <c r="J99">
+        <v>-0.04039737669577539</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3891,60 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.05092610000121005</v>
+        <v>-0.05342185240771914</v>
       </c>
       <c r="C101">
-        <v>0.04711973345654356</v>
+        <v>-0.001843743387596897</v>
       </c>
       <c r="D101">
-        <v>0.01063786435186731</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.04234363057745795</v>
+      </c>
+      <c r="E101">
+        <v>-0.01353626134007997</v>
+      </c>
+      <c r="F101">
+        <v>0.03380930135873093</v>
+      </c>
+      <c r="G101">
+        <v>-0.02898487800491881</v>
+      </c>
+      <c r="H101">
+        <v>-0.06598978667213561</v>
+      </c>
+      <c r="I101">
+        <v>0.03718192881309904</v>
+      </c>
+      <c r="J101">
+        <v>-0.01142501119545781</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3955,28 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3987,28 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +4017,24 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
